--- a/excel/assignments/Assignment10b_Workbook.xlsx
+++ b/excel/assignments/Assignment10b_Workbook.xlsx
@@ -27,18 +27,6 @@
     <t>ID #</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Equipment Detail</t>
-  </si>
-  <si>
-    <t>Checked Out</t>
-  </si>
-  <si>
-    <t>Checked In</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Dean Sorenson</t>
   </si>
   <si>
-    <t>Checked Out By</t>
-  </si>
-  <si>
     <t>32" Paragon 440 OLED TV</t>
   </si>
   <si>
@@ -178,6 +163,21 @@
   </si>
   <si>
     <t>Saris SlimPro</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Ausgecheckt</t>
+  </si>
+  <si>
+    <t>Eingecheckt</t>
+  </si>
+  <si>
+    <t>Ausgecheckt von</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -323,15 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -344,16 +332,28 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,600 +648,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14">
+        <v>41406</v>
+      </c>
+      <c r="E2" s="15">
+        <v>41409</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3005</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16">
+        <v>41482</v>
+      </c>
+      <c r="E3" s="17">
+        <v>41492</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>41532</v>
+      </c>
+      <c r="E4" s="17">
+        <v>41548</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16">
+        <v>41500</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41502</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1023</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>41494</v>
+      </c>
+      <c r="E6" s="17">
+        <v>41501</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3070</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16">
+        <v>41553</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1025</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16">
+        <v>41543</v>
+      </c>
+      <c r="E8" s="17">
+        <v>41551</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1031</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16">
+        <v>41551</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1032</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41536</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41541</v>
+      </c>
+      <c r="E11" s="17">
+        <v>41543</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1034</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41511</v>
+      </c>
+      <c r="E12" s="17">
+        <v>41513</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41552</v>
+      </c>
+      <c r="E13" s="17">
+        <v>41553</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2051</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>41548</v>
+      </c>
+      <c r="E14" s="17">
+        <v>41552</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>3800</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>41490</v>
+      </c>
+      <c r="E15" s="17">
+        <v>41491</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>3900</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16">
+        <v>41438</v>
+      </c>
+      <c r="E16" s="17">
+        <v>41445</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4800</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16">
+        <v>41482</v>
+      </c>
+      <c r="E17" s="17">
+        <v>41492</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4900</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="16">
+        <v>41551</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4905</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="16">
+        <v>41551</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>6100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16">
+        <v>41545</v>
+      </c>
+      <c r="E20" s="17">
+        <v>41548</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16">
+        <v>41543</v>
+      </c>
+      <c r="E21" s="17">
+        <v>41544</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>6102</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="16">
+        <v>41508</v>
+      </c>
+      <c r="E22" s="17">
+        <v>41509</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>6200</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="16">
+        <v>41518</v>
+      </c>
+      <c r="E23" s="17">
+        <v>41521</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>6301</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="16">
+        <v>41527</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>6302</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="18">
+        <v>41525</v>
+      </c>
+      <c r="E25" s="17">
+        <v>41532</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>3000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="17">
-        <v>41406</v>
-      </c>
-      <c r="E2" s="10">
-        <v>41409</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>3005</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="18">
-        <v>41482</v>
-      </c>
-      <c r="E3" s="11">
-        <v>41492</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1021</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18">
-        <v>41532</v>
-      </c>
-      <c r="E4" s="11">
-        <v>41548</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1022</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18">
-        <v>41500</v>
-      </c>
-      <c r="E5" s="11">
-        <v>41502</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1023</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18">
-        <v>41494</v>
-      </c>
-      <c r="E6" s="11">
-        <v>41501</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3070</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="18">
-        <v>41553</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1025</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="18">
-        <v>41543</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D26" s="16">
         <v>41551</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1031</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18">
-        <v>41551</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1032</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18">
-        <v>41536</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1033</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18">
-        <v>41541</v>
-      </c>
-      <c r="E11" s="11">
-        <v>41543</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1034</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="18">
-        <v>41511</v>
-      </c>
-      <c r="E12" s="11">
-        <v>41513</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2050</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="18">
-        <v>41552</v>
-      </c>
-      <c r="E13" s="11">
-        <v>41553</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2051</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="18">
-        <v>41548</v>
-      </c>
-      <c r="E14" s="11">
-        <v>41552</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3800</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="18">
-        <v>41490</v>
-      </c>
-      <c r="E15" s="11">
-        <v>41491</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3900</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="18">
-        <v>41438</v>
-      </c>
-      <c r="E16" s="11">
-        <v>41445</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4800</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18">
-        <v>41482</v>
-      </c>
-      <c r="E17" s="11">
-        <v>41492</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>4900</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="18">
-        <v>41551</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4905</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="18">
-        <v>41551</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>6100</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="18">
-        <v>41545</v>
-      </c>
-      <c r="E20" s="11">
-        <v>41548</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="18">
-        <v>41543</v>
-      </c>
-      <c r="E21" s="11">
-        <v>41544</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>6102</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="18">
-        <v>41508</v>
-      </c>
-      <c r="E22" s="11">
-        <v>41509</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>6200</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="18">
-        <v>41518</v>
-      </c>
-      <c r="E23" s="11">
-        <v>41521</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>6301</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="18">
-        <v>41527</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="2" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>1012</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6302</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="3">
-        <v>41525</v>
-      </c>
-      <c r="E25" s="11">
-        <v>41532</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>1011</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="18">
-        <v>41551</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>1012</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>51</v>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="19">
         <v>41546</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
+      <c r="E27" s="20"/>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>5020</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>47</v>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="19">
         <v>41497</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="20">
         <v>41499</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>33</v>
+      <c r="F28" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>5022</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>47</v>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="19">
         <v>41472</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="20">
         <v>41472</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>34</v>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>5023</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>48</v>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="19">
         <v>41548</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="20">
         <v>41548</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>35</v>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
